--- a/biology/Médecine/Ventricule_cardiaque/Ventricule_cardiaque.xlsx
+++ b/biology/Médecine/Ventricule_cardiaque/Ventricule_cardiaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ventricules cardiaques sont la ou les deux cavités inférieures du cœur. Les mammifères et oiseaux en possèdent deux parfaitement étanches, les crocodiliens deux partiellement étanches, les autres reptiles deux mais plus ou moins bien formés tandis que les amphibiens n'en possèdent qu'un seul.
 La contraction ventriculaire suit la contraction atriale, et est plus puissante et plus longue que celle-ci. Lorsque l'espèce possède deux ventricules, ils sont séparées par une paroi musculaire épaisse appelé le septum interventriculaire. Le sang est expulsé vers l'artère pulmonaire par le ventricule droit, et vers l'aorte par le ventricule gauche. Les ventricules sont séparés des atria (du terme désuet « oreillettes ») par les valvules mitrale et tricuspide, et des artères cardiaques par les valves aortique et pulmonaire.
@@ -512,7 +524,9 @@
           <t>Chez les mammifères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ventricule gauche reçoit le sang oxygéné par l'atrium gauche et le propulse dans le corps par l'aorte.
 Le ventricule droit reçoit le sang veineux par l'atrium droit et le propulse vers les poumons par l'artère pulmonaire.
@@ -544,7 +558,9 @@
           <t>Chez les reptiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cœur des reptiles a la particularité que les deux ventricules ne sont pas complètement séparés, sauf chez les crocodiliens.
 </t>
